--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704322.5779357563</v>
+        <v>742888.1751864641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982516</v>
+        <v>335414.390162471</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043315</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518081.420682378</v>
+        <v>8194462.196483677</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>125.638434068502</v>
+        <v>203.7104616412908</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.96190712986773</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="F5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>37.42681674263682</v>
+        <v>207.0150734853809</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>118.1417229758081</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>64.24901998153001</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.203367682519206</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>51.47427571028325</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>372.4877683387386</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>231.8635835046283</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>263.2420339516672</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>125.6384340685031</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>59.0322609154501</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>153.0555388225932</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1661,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>96.95377689311783</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.39246588144738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>6.908481403325515</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>164.1944522398487</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>85.32718047204553</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>69.0708624534348</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.21937696961085</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2281,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>23.48692950433955</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>142.8352045517466</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2409,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>63.01667685547815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>10.46499054460243</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>138.5973240860322</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>132.997194893274</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>118.9283458032789</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>120.3796098440913</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>290.5081575871956</v>
+        <v>237.6596569995509</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>324.4964282009514</v>
+        <v>130.6070467442755</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>123.6064608052455</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>167.9234023397772</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.44871811097143</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.99166070001795</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>34.08346683966604</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3682,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>169.3575929423584</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3760,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>70.06474167893016</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>129.6781866221426</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>95.33023562355984</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>81.12200652863734</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>239.2693013921267</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613335</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806668</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806668</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V2" t="n">
-        <v>818.7624959030029</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W2" t="n">
-        <v>552.8614515073797</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X2" t="n">
-        <v>552.8614515073797</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.9604071117565</v>
+        <v>31.35113235729607</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613335</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613335</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613335</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683217</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399124</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>398.824578434775</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>398.824578434775</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565288</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>926.0606266465645</v>
+        <v>657.1194829915109</v>
       </c>
       <c r="V3" t="n">
-        <v>690.9085184148217</v>
+        <v>421.9673747597683</v>
       </c>
       <c r="W3" t="n">
-        <v>436.6711616866201</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8196614810873</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.05936271613335</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706538</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706538</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706538</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706538</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>182.5089274706538</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0221525919995</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423044</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>579.9844679696339</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>579.9844679696339</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="D5" t="n">
-        <v>579.9844679696339</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="E5" t="n">
-        <v>579.9844679696339</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F5" t="n">
-        <v>301.0384945329112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0384945329112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618846</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823542</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="S5" t="n">
-        <v>896.7353068029595</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="T5" t="n">
-        <v>896.7353068029595</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="U5" t="n">
-        <v>896.7353068029595</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="V5" t="n">
-        <v>896.7353068029595</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="W5" t="n">
-        <v>896.7353068029595</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="X5" t="n">
-        <v>858.9304414063566</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.9844679696339</v>
+        <v>760.6642075620503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134.7267908976475</v>
+        <v>138.9000923018289</v>
       </c>
       <c r="C6" t="n">
-        <v>134.7267908976475</v>
+        <v>138.9000923018289</v>
       </c>
       <c r="D6" t="n">
-        <v>134.7267908976475</v>
+        <v>138.9000923018289</v>
       </c>
       <c r="E6" t="n">
-        <v>134.7267908976475</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>134.7267908976475</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>134.7267908976475</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>45.1838775027733</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>291.3393440954743</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="M6" t="n">
-        <v>564.7342926608062</v>
+        <v>261.6821236264224</v>
       </c>
       <c r="N6" t="n">
-        <v>838.1292412261381</v>
+        <v>503.7992286639533</v>
       </c>
       <c r="O6" t="n">
-        <v>1104.626054809422</v>
+        <v>745.9163337014843</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>930.0537086376609</v>
       </c>
       <c r="Q6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U6" t="n">
-        <v>1039.728054828078</v>
+        <v>750.0278363185935</v>
       </c>
       <c r="V6" t="n">
-        <v>804.5759465963358</v>
+        <v>514.8757280868508</v>
       </c>
       <c r="W6" t="n">
-        <v>550.3385898681342</v>
+        <v>514.8757280868508</v>
       </c>
       <c r="X6" t="n">
-        <v>342.4870896626014</v>
+        <v>514.8757280868508</v>
       </c>
       <c r="Y6" t="n">
-        <v>134.7267908976475</v>
+        <v>307.1154293218969</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>191.7165880308942</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.817756940316</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="C8" t="n">
-        <v>1328.817756940316</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="D8" t="n">
-        <v>1328.817756940316</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="E8" t="n">
-        <v>1328.817756940316</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>255.2650026197983</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.957088916128</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.817756940316</v>
+        <v>787.0670914110452</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>261.6628906109961</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>522.2725042231466</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>782.8821178352971</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>1043.295181927789</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>926.0606266465645</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>690.9085184148217</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5099885583422</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>942.5212410910276</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>531.5353363014201</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>113.571528199607</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5129,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>208.5445361866202</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.831893336434</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C14" t="n">
-        <v>892.8693763960225</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D14" t="n">
-        <v>534.603677789272</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E14" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
@@ -5276,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942547</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.512263598976</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W14" t="n">
-        <v>1717.512263598976</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X14" t="n">
-        <v>1344.046505337896</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1261.831893336434</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="15">
@@ -5337,16 +5339,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D16" t="n">
-        <v>721.1507201626711</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E16" t="n">
-        <v>573.2376265802779</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F16" t="n">
-        <v>426.3476790823676</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G16" t="n">
-        <v>257.3478788207</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1236.578376364604</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C17" t="n">
-        <v>1150.38930518072</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D17" t="n">
-        <v>792.1236065739693</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1236065739693</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>2013.317548404538</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y17" t="n">
-        <v>1623.178216428726</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5588,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5604,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5704,19 +5706,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.14692331494</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2572.351853615953</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2572.351853615953</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2198.886095354873</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.746763379062</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>87.4979080522946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>87.4979080522946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
         <v>53.94298182036445</v>
@@ -5929,31 +5931,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>484.4236418782189</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>484.4236418782189</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5975,58 +5977,58 @@
         <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2465.942913862886</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="V23" t="n">
-        <v>2465.942913862886</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="W23" t="n">
-        <v>2113.174258592771</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X23" t="n">
         <v>1968.896274197068</v>
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,16 +6065,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2169.853036130063</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="C25" t="n">
-        <v>2169.853036130063</v>
+        <v>117.5961907652919</v>
       </c>
       <c r="D25" t="n">
-        <v>2169.853036130063</v>
+        <v>117.5961907652919</v>
       </c>
       <c r="E25" t="n">
-        <v>2169.853036130063</v>
+        <v>117.5961907652919</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>117.5961907652919</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>117.5961907652919</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>2686.578393498422</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T25" t="n">
-        <v>2459.270206167024</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U25" t="n">
-        <v>2459.270206167024</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V25" t="n">
-        <v>2459.270206167024</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W25" t="n">
-        <v>2169.853036130063</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X25" t="n">
-        <v>2169.853036130063</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y25" t="n">
-        <v>2169.853036130063</v>
+        <v>286.5323736931988</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1780.41262192169</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C26" t="n">
-        <v>1780.41262192169</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>2557.151793961624</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2167.012461985812</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2476.356511874692</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C28" t="n">
-        <v>2307.420328946785</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D28" t="n">
-        <v>2157.303689534449</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E28" t="n">
-        <v>2157.303689534449</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F28" t="n">
-        <v>2157.303689534449</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>2157.303689534449</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>607.9993419809001</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y28" t="n">
-        <v>2476.356511874692</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.38930518072</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.38930518072</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>792.1236065739693</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036446</v>
@@ -6467,13 +6469,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6494,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2266.763050687725</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1913.994395417611</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1540.528637156531</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.38930518072</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6543,13 +6545,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6625,37 +6627,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W31" t="n">
         <v>53.94298182036446</v>
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2289.351746278601</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C32" t="n">
-        <v>1920.38922933819</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>1562.123530731439</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E32" t="n">
-        <v>1176.335278133195</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="F32" t="n">
-        <v>765.3493733435873</v>
+        <v>711.9670495176836</v>
       </c>
       <c r="G32" t="n">
-        <v>347.3855652417742</v>
+        <v>294.0032414158704</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6737,13 +6739,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2289.351746278601</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>2289.351746278601</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>325.6879402326643</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C34" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.3364050629041</v>
+        <v>2373.5477363903</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857192</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
@@ -6935,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2294.708047044453</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="C37" t="n">
-        <v>2125.771864116546</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F37" t="n">
         <v>2022.963088632153</v>
@@ -7135,10 +7137,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>2572.294080103833</v>
       </c>
       <c r="Y37" t="n">
-        <v>2476.356511874692</v>
+        <v>2351.501500960303</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="C38" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7199,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2527.529492695215</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2527.529492695215</v>
       </c>
       <c r="U38" t="n">
-        <v>2520.971603332393</v>
+        <v>2273.767707333307</v>
       </c>
       <c r="V38" t="n">
-        <v>2520.971603332393</v>
+        <v>1942.704819989736</v>
       </c>
       <c r="W38" t="n">
-        <v>2520.971603332393</v>
+        <v>1589.936164719622</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.505845071313</v>
+        <v>1216.470406458542</v>
       </c>
       <c r="Y38" t="n">
-        <v>2135.941483343059</v>
+        <v>826.3310744827304</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7256,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2384.445743490836</v>
+        <v>2226.327015842551</v>
       </c>
       <c r="C40" t="n">
-        <v>2215.509560562929</v>
+        <v>2057.390832914644</v>
       </c>
       <c r="D40" t="n">
-        <v>2215.509560562929</v>
+        <v>2057.390832914644</v>
       </c>
       <c r="E40" t="n">
-        <v>2215.509560562929</v>
+        <v>2057.390832914644</v>
       </c>
       <c r="F40" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
         <v>2022.963088632153</v>
@@ -7363,19 +7365,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="Y40" t="n">
-        <v>2476.356511874692</v>
+        <v>2407.975480672791</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978289</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C41" t="n">
-        <v>1920.409918978289</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7412,16 +7414,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7442,19 +7444,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7500,37 +7502,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.820796875036</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="C43" t="n">
-        <v>500.820796875036</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="D43" t="n">
-        <v>500.820796875036</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>150.2361491168895</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7573,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V43" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W43" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X43" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>781.1711973675267</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>412.2086804271149</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D44" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
         <v>53.94298182036445</v>
@@ -7646,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2615.207670282225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2615.207670282225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2615.207670282225</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V44" t="n">
-        <v>2284.144782938654</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W44" t="n">
-        <v>1931.37612766854</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X44" t="n">
-        <v>1557.91036940746</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y44" t="n">
-        <v>1167.771037431648</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7725,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7834,22 +7836,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>2567.064746875</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V46" t="n">
-        <v>2407.975480672791</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2118.55831063583</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>129.591740357718</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>245.8200408460683</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>149.0021003118939</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>399.2039605324505</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9064735273546</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>187.6571175293591</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236086</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.833774309385</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>381.7094952808122</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.2926466205235</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>95.88867496550694</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574613</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.9959047043867</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22632,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>100.2996914017153</v>
+        <v>22.23092043968398</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872717</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>102.240563372343</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F5" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>61.87643319194535</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>332.3042839358322</v>
+        <v>162.7160271930881</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>39.50335747959285</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>161.6874062606638</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22951,22 +22953,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.217680340412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>125.5212316362309</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118134</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>34.38827740297285</v>
+        <v>143.6340117900443</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>183.3466378992031</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>122.9959047043864</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>100.2996914017141</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23179,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23242,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206164</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>264.8905118489071</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.115350019201941</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>154.2703906151715</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>304.8454727746062</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>141.7069916148868</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>279.945711298962</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>219.4114360937592</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>12.03533246204674</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23944,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24026,7 +24028,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>258.6813960167001</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>113.2145856769583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24169,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>227.7372380039498</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>226.8958961267224</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>93.15421198631699</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24412,7 +24414,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>201.6805484054165</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>231.1337765924368</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>23.17369394852116</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24649,10 +24651,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>93.21719314674004</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24734,13 +24736,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>207.3726486260436</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>33.41461517716152</v>
+        <v>86.26311576480623</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>22.82750184132354</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>44.88450425060901</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>58.23741346252916</v>
+        <v>252.1267949192051</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,13 +25210,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>102.1031945837917</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.492310469194337</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>374.7892205450822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.84031948191935</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>111.3375811832652</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>185.3254486783245</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,10 +25684,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>257.6875167912048</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>16.75577602442655</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>71.97956663549107</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>93.29370628033419</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>11.95486611616258</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.19271039829707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>96.2516047562944</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484207.1823542059</v>
+        <v>465488.0628680183</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494243.3891182223</v>
+        <v>468513.85889795</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787228.4241821774</v>
+        <v>484207.1823542062</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821775</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264978</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="C2" t="n">
-        <v>159463.6497950859</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141816</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141817</v>
@@ -26326,34 +26328,34 @@
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
+        <v>260237.3490141818</v>
+      </c>
+      <c r="H2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="H2" t="n">
-        <v>260237.3490141817</v>
-      </c>
       <c r="I2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="L2" t="n">
+        <v>260237.3490141818</v>
+      </c>
+      <c r="M2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="L2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="M2" t="n">
-        <v>260237.3490141816</v>
-      </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141817</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749499</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438904</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>22364.98695753593</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124988</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475282</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392803</v>
+        <v>4727.563118847505</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.117690635</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>33649.84678425771</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33663.59862924285</v>
+      </c>
+      <c r="D4" t="n">
         <v>33719.40849968307</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33777.16046143055</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26442,7 +26444,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
         <v>35944.74664026682</v>
@@ -26454,10 +26456,10 @@
         <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>51181.37951678014</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26488,16 +26490,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38242.13525496848</v>
+        <v>-13155.94180136798</v>
       </c>
       <c r="C6" t="n">
-        <v>59398.42223248615</v>
+        <v>63855.64757802826</v>
       </c>
       <c r="D6" t="n">
-        <v>-275750.0978431826</v>
+        <v>49787.33266244551</v>
       </c>
       <c r="E6" t="n">
-        <v>175061.1243105054</v>
+        <v>-232659.3133730685</v>
       </c>
       <c r="F6" t="n">
         <v>175061.1243105053</v>
       </c>
       <c r="G6" t="n">
+        <v>175061.1243105055</v>
+      </c>
+      <c r="H6" t="n">
         <v>175061.1243105053</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>175061.1243105053</v>
+      </c>
+      <c r="J6" t="n">
+        <v>112001.1817113991</v>
+      </c>
+      <c r="K6" t="n">
+        <v>174147.8685080482</v>
+      </c>
+      <c r="L6" t="n">
+        <v>170333.561191658</v>
+      </c>
+      <c r="M6" t="n">
+        <v>72627.00661987044</v>
+      </c>
+      <c r="N6" t="n">
         <v>175061.1243105054</v>
       </c>
-      <c r="I6" t="n">
-        <v>175061.1243105052</v>
-      </c>
-      <c r="J6" t="n">
-        <v>106185.4255792555</v>
-      </c>
-      <c r="K6" t="n">
-        <v>171737.3504860302</v>
-      </c>
-      <c r="L6" t="n">
-        <v>74297.81237122499</v>
-      </c>
-      <c r="M6" t="n">
-        <v>175061.1243105053</v>
-      </c>
-      <c r="N6" t="n">
-        <v>175061.1243105053</v>
-      </c>
       <c r="O6" t="n">
-        <v>175061.1243105053</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="P6" t="n">
-        <v>175061.1243105052</v>
+        <v>175061.1243105054</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
+        <v>23.01338268678986</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26762,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26808,16 +26810,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233572</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>19.33951979354754</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>12.9144797506886</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516667</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068883</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.9144797506886</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>5.42776745276012</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470702</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587038</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.616303794162698</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335885</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192331</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164377</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263571</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174389</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170847</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894685</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.89953440294882</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394052</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179687</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938414</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587926</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390063</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418822</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889699</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>127.3525795169231</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>23.3246024308938</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>48.68406142111991</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>9.770660483716462</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35495,19 +35497,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35738,7 +35740,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,19 +37393,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
